--- a/tests/traces/compare_test/reference/compare_56ch_rank7_across_threads.xlsx
+++ b/tests/traces/compare_test/reference/compare_56ch_rank7_across_threads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gpu_timeline" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kernel_summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="gpu_timeline" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="kernel_summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,105 +631,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Mean Kernel Time (µs)__512thread_diff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Kernel Time (µs)__512thread_pct</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Count__512thread_diff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Count__512thread_pct</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>256thread::Count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>256thread::Mean Kernel Time (µs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>256thread::Median Kernel Time (µs)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>256thread::Std Kernel Time (µs)</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Min Kernel Time (µs)</t>
+          <t>256thread::Percentage (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Max Kernel Time (µs)</t>
+          <t>256thread::Cumulative Percentage (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Percentage (%)</t>
+          <t>256thread::Total Kernel Time (ms)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Cumulative Percentage (%)</t>
+          <t>256thread::Category</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Total Kernel Time (ms)</t>
+          <t>512thread::Count</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Category</t>
+          <t>512thread::Mean Kernel Time (µs)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>512thread::Count</t>
+          <t>512thread::Percentage (%)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>512thread::Mean Kernel Time (µs)</t>
+          <t>512thread::Total Kernel Time (ms)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Median Kernel Time (µs)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Std Kernel Time (µs)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Min Kernel Time (µs)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Max Kernel Time (µs)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Percentage (%)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Total Kernel Time (ms)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>512thread::Category</t>
         </is>
@@ -748,68 +718,50 @@
         <v>-57.99995564069454</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-58039895.15555558</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-57.99995564069454</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>270</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>100068861.2851852</v>
       </c>
-      <c r="H2" t="n">
-        <v>1499326.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1033109320.759606</v>
-      </c>
       <c r="J2" t="n">
-        <v>7600</v>
+        <v>86.6047743568478</v>
       </c>
       <c r="K2" t="n">
-        <v>16836430099</v>
+        <v>97.07045161784934</v>
       </c>
       <c r="L2" t="n">
-        <v>86.6047743568478</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.07045161784934</v>
+        <v>27018592.547</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>COMM</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>27018592.547</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>COMM</t>
-        </is>
+        <v>270</v>
+      </c>
+      <c r="O2" t="n">
+        <v>42028966.12962963</v>
       </c>
       <c r="P2" t="n">
-        <v>270</v>
+        <v>72.0850230522221</v>
       </c>
       <c r="Q2" t="n">
-        <v>42028966.12962963</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1054736.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>201668198.2881917</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7600</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2282497925</v>
-      </c>
-      <c r="V2" t="n">
-        <v>72.0850230522221</v>
-      </c>
-      <c r="W2" t="n">
         <v>11347820.855</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>COMM</t>
         </is>
@@ -828,68 +780,50 @@
         <v>1.005485930950395</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>668.4983897726197</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.005485930950399</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>10247</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>66485.10627500732</v>
       </c>
-      <c r="H3" t="n">
-        <v>9560</v>
-      </c>
-      <c r="I3" t="n">
-        <v>108136.6600484653</v>
-      </c>
       <c r="J3" t="n">
-        <v>3720</v>
+        <v>2.183736413790738</v>
       </c>
       <c r="K3" t="n">
-        <v>1291773</v>
+        <v>99.61316657755181</v>
       </c>
       <c r="L3" t="n">
-        <v>2.183736413790738</v>
-      </c>
-      <c r="M3" t="n">
-        <v>99.61316657755181</v>
+        <v>681272.884</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Elementwise</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>681272.884</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+        <v>10247</v>
+      </c>
+      <c r="O3" t="n">
+        <v>67153.60466477994</v>
       </c>
       <c r="P3" t="n">
-        <v>10247</v>
+        <v>4.371179455023123</v>
       </c>
       <c r="Q3" t="n">
-        <v>67153.60466477994</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>109357.104636571</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3680</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1265920</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4.371179455023123</v>
-      </c>
-      <c r="W3" t="n">
         <v>688122.987</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Elementwise</t>
         </is>
@@ -908,68 +842,50 @@
         <v>0.6327917242649833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1470.269417475705</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6327917242649725</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2060</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>232346.4990291262</v>
       </c>
-      <c r="H4" t="n">
-        <v>186063.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>123449.1170748578</v>
-      </c>
       <c r="J4" t="n">
-        <v>4160</v>
+        <v>1.534201721914117</v>
       </c>
       <c r="K4" t="n">
-        <v>1230652</v>
+        <v>9.613836127912478</v>
       </c>
       <c r="L4" t="n">
-        <v>1.534201721914117</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.613836127912478</v>
+        <v>478633.788</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Elementwise</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>478633.788</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+        <v>2060</v>
+      </c>
+      <c r="O4" t="n">
+        <v>233816.7684466019</v>
       </c>
       <c r="P4" t="n">
-        <v>2060</v>
+        <v>3.059676034650171</v>
       </c>
       <c r="Q4" t="n">
-        <v>233816.7684466019</v>
-      </c>
-      <c r="R4" t="n">
-        <v>186703</v>
-      </c>
-      <c r="S4" t="n">
-        <v>128135.4367378376</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3840</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1230869</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.059676034650171</v>
-      </c>
-      <c r="W4" t="n">
         <v>481662.543</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Elementwise</t>
         </is>
@@ -988,68 +904,50 @@
         <v>2.60169742842977</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>56090.66999999993</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.601697428429762</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>200</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>2155925.95</v>
       </c>
-      <c r="H5" t="n">
-        <v>2093217</v>
-      </c>
-      <c r="I5" t="n">
-        <v>236184.3420848379</v>
-      </c>
       <c r="J5" t="n">
-        <v>2048237</v>
+        <v>1.382111078547313</v>
       </c>
       <c r="K5" t="n">
-        <v>3616113</v>
+        <v>7.262392621596343</v>
       </c>
       <c r="L5" t="n">
-        <v>1.382111078547313</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.262392621596343</v>
+        <v>431185.19</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>431185.19</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2212016.62</v>
       </c>
       <c r="P5" t="n">
-        <v>200</v>
+        <v>2.810288796096762</v>
       </c>
       <c r="Q5" t="n">
-        <v>2212016.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2091513</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1184961.132369512</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2039112</v>
-      </c>
-      <c r="U5" t="n">
-        <v>18726133</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.810288796096762</v>
-      </c>
-      <c r="W5" t="n">
         <v>442403.324</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1068,68 +966,50 @@
         <v>2.660542072377303</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15851.56129032257</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.660542072377303</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>620</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>595801.9403225806</v>
       </c>
-      <c r="H6" t="n">
-        <v>612591</v>
-      </c>
-      <c r="I6" t="n">
-        <v>288481.1515504301</v>
-      </c>
       <c r="J6" t="n">
-        <v>180164</v>
+        <v>1.184057287892218</v>
       </c>
       <c r="K6" t="n">
-        <v>2166788</v>
+        <v>1.905384500242173</v>
       </c>
       <c r="L6" t="n">
-        <v>1.184057287892218</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.905384500242173</v>
+        <v>369397.203</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>369397.203</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>620</v>
+      </c>
+      <c r="O6" t="n">
+        <v>611653.5016129032</v>
       </c>
       <c r="P6" t="n">
-        <v>620</v>
+        <v>2.408960763728753</v>
       </c>
       <c r="Q6" t="n">
-        <v>611653.5016129032</v>
-      </c>
-      <c r="R6" t="n">
-        <v>613729.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>719585.1861994929</v>
-      </c>
-      <c r="T6" t="n">
-        <v>181643</v>
-      </c>
-      <c r="U6" t="n">
-        <v>17144719</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.408960763728753</v>
-      </c>
-      <c r="W6" t="n">
         <v>379225.171</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1148,68 +1028,50 @@
         <v>-1.535030607575518</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-7710.809836065455</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-1.5350306075755</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>610</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>502322.8721311475</v>
       </c>
-      <c r="H7" t="n">
-        <v>500268.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>249956.6738368859</v>
-      </c>
       <c r="J7" t="n">
-        <v>197643</v>
+        <v>0.9821818416673822</v>
       </c>
       <c r="K7" t="n">
-        <v>1828823</v>
+        <v>2.899871870648941</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9821818416673822</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.899871870648941</v>
+        <v>306416.952</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>306416.952</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>610</v>
+      </c>
+      <c r="O7" t="n">
+        <v>494612.062295082</v>
       </c>
       <c r="P7" t="n">
-        <v>610</v>
+        <v>1.916580693729443</v>
       </c>
       <c r="Q7" t="n">
-        <v>494612.062295082</v>
-      </c>
-      <c r="R7" t="n">
-        <v>497588</v>
-      </c>
-      <c r="S7" t="n">
-        <v>241686.374102983</v>
-      </c>
-      <c r="T7" t="n">
-        <v>198243</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1720576</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.916580693729443</v>
-      </c>
-      <c r="W7" t="n">
         <v>301713.358</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1228,68 +1090,50 @@
         <v>2.601244492212132</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17112.39024390245</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.60124449221215</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>410</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>657853.9731707317</v>
       </c>
-      <c r="H8" t="n">
-        <v>717832.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>121517.0176262737</v>
-      </c>
       <c r="J8" t="n">
-        <v>504009</v>
+        <v>0.8645546902900589</v>
       </c>
       <c r="K8" t="n">
-        <v>1561958</v>
+        <v>4.955584399898841</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8645546902900589</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4.955584399898841</v>
+        <v>269720.129</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N8" t="n">
-        <v>269720.129</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="O8" t="n">
+        <v>674966.3634146341</v>
       </c>
       <c r="P8" t="n">
-        <v>410</v>
+        <v>1.757917776465423</v>
       </c>
       <c r="Q8" t="n">
-        <v>674966.3634146341</v>
-      </c>
-      <c r="R8" t="n">
-        <v>720991.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>160101.7297517223</v>
-      </c>
-      <c r="T8" t="n">
-        <v>507967</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1630065</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.757917776465423</v>
-      </c>
-      <c r="W8" t="n">
         <v>276736.209</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1308,68 +1152,50 @@
         <v>1.886914242139734</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21041.60999999987</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.886914242139729</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>200</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1115133.35</v>
       </c>
-      <c r="H9" t="n">
-        <v>1089259</v>
-      </c>
-      <c r="I9" t="n">
-        <v>124464.2463618756</v>
-      </c>
       <c r="J9" t="n">
-        <v>999058</v>
+        <v>0.7148845520842576</v>
       </c>
       <c r="K9" t="n">
-        <v>2037987</v>
+        <v>0.7183478304816816</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7148845520842576</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7183478304816816</v>
+        <v>223026.67</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>223026.67</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1136174.96</v>
       </c>
       <c r="P9" t="n">
-        <v>200</v>
+        <v>1.443470058779977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1136174.96</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1097777</v>
-      </c>
-      <c r="S9" t="n">
-        <v>174655.5917380697</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1011896</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1983601</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.443470058779977</v>
-      </c>
-      <c r="W9" t="n">
         <v>227234.992</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1388,68 +1214,50 @@
         <v>1.464652412832574</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15348.03500000015</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.464652412832579</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1047896.065</v>
       </c>
-      <c r="H10" t="n">
-        <v>1036638</v>
-      </c>
-      <c r="I10" t="n">
-        <v>43844.04509385199</v>
-      </c>
       <c r="J10" t="n">
-        <v>1000738</v>
+        <v>0.671780383089055</v>
       </c>
       <c r="K10" t="n">
-        <v>1402386</v>
+        <v>5.88028154304903</v>
       </c>
       <c r="L10" t="n">
-        <v>0.671780383089055</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.88028154304903</v>
+        <v>209579.213</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>209579.213</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Attention</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1063244.1</v>
       </c>
       <c r="P10" t="n">
-        <v>200</v>
+        <v>1.35081398337142</v>
       </c>
       <c r="Q10" t="n">
-        <v>1063244.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1035537</v>
-      </c>
-      <c r="S10" t="n">
-        <v>119328.6685331714</v>
-      </c>
-      <c r="T10" t="n">
-        <v>993416</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1835988</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.35081398337142</v>
-      </c>
-      <c r="W10" t="n">
         <v>212648.82</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Attention</t>
         </is>
@@ -1468,68 +1276,50 @@
         <v>-0.3846150562308772</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1855.526190476201</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.3846150562308813</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>420</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>482437.2214285714</v>
       </c>
-      <c r="H11" t="n">
-        <v>659131.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>301023.9147475715</v>
-      </c>
       <c r="J11" t="n">
-        <v>92922</v>
+        <v>0.6494851271325085</v>
       </c>
       <c r="K11" t="n">
-        <v>1235182</v>
+        <v>4.091029709608782</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6494851271325085</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4.091029709608782</v>
+        <v>202623.633</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>202623.633</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>420</v>
+      </c>
+      <c r="O11" t="n">
+        <v>480581.6952380952</v>
       </c>
       <c r="P11" t="n">
-        <v>420</v>
+        <v>1.282180259046741</v>
       </c>
       <c r="Q11" t="n">
-        <v>480581.6952380952</v>
-      </c>
-      <c r="R11" t="n">
-        <v>442387</v>
-      </c>
-      <c r="S11" t="n">
-        <v>303670.615981714</v>
-      </c>
-      <c r="T11" t="n">
-        <v>92762</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1565334</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.282180259046741</v>
-      </c>
-      <c r="W11" t="n">
         <v>201844.312</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1548,68 +1338,50 @@
         <v>-1.12161495780949</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-9303.005000000005</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1.121614957809493</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>200</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>829429.47</v>
       </c>
-      <c r="H12" t="n">
-        <v>800614</v>
-      </c>
-      <c r="I12" t="n">
-        <v>118179.1374901198</v>
-      </c>
       <c r="J12" t="n">
-        <v>772333</v>
+        <v>0.5317268245510128</v>
       </c>
       <c r="K12" t="n">
-        <v>1677470</v>
+        <v>3.441544582476273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5317268245510128</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.441544582476273</v>
+        <v>165885.894</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>165885.894</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O12" t="n">
+        <v>820126.465</v>
       </c>
       <c r="P12" t="n">
-        <v>200</v>
+        <v>1.041941636031624</v>
       </c>
       <c r="Q12" t="n">
-        <v>820126.465</v>
-      </c>
-      <c r="R12" t="n">
-        <v>803773</v>
-      </c>
-      <c r="S12" t="n">
-        <v>85792.3384301614</v>
-      </c>
-      <c r="T12" t="n">
-        <v>777132</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1612155</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.041941636031624</v>
-      </c>
-      <c r="W12" t="n">
         <v>164025.293</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -1628,68 +1400,50 @@
         <v>-0.7098452743911432</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1798.272131147474</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.7098452743911006</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>610</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>253332.9721311475</v>
       </c>
-      <c r="H13" t="n">
-        <v>124322</v>
-      </c>
-      <c r="I13" t="n">
-        <v>194788.8105367268</v>
-      </c>
       <c r="J13" t="n">
-        <v>107442</v>
+        <v>0.4953368817693013</v>
       </c>
       <c r="K13" t="n">
-        <v>1407305</v>
+        <v>10.1095657388791</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4953368817693013</v>
-      </c>
-      <c r="M13" t="n">
-        <v>10.1095657388791</v>
+        <v>154533.113</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>154533.113</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>610</v>
+      </c>
+      <c r="O13" t="n">
+        <v>251534.7</v>
       </c>
       <c r="P13" t="n">
-        <v>610</v>
+        <v>0.9746760877324054</v>
       </c>
       <c r="Q13" t="n">
-        <v>251534.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>123762</v>
-      </c>
-      <c r="S13" t="n">
-        <v>186537.8148852868</v>
-      </c>
-      <c r="T13" t="n">
-        <v>106002</v>
-      </c>
-      <c r="U13" t="n">
-        <v>925265</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.9746760877324054</v>
-      </c>
-      <c r="W13" t="n">
         <v>153436.167</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1708,68 +1462,50 @@
         <v>2.284124444780848</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7077.61463414639</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.284124444780864</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>410</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>309861.1658536585</v>
       </c>
-      <c r="H14" t="n">
-        <v>302945.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47790.10583216149</v>
-      </c>
       <c r="J14" t="n">
-        <v>277045</v>
+        <v>0.4072209566301439</v>
       </c>
       <c r="K14" t="n">
-        <v>1204952</v>
+        <v>7.758995652912466</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4072209566301439</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7.758995652912466</v>
+        <v>127043.078</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>127043.078</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="O14" t="n">
+        <v>316938.7804878049</v>
       </c>
       <c r="P14" t="n">
-        <v>410</v>
+        <v>0.8254519728244947</v>
       </c>
       <c r="Q14" t="n">
-        <v>316938.7804878049</v>
-      </c>
-      <c r="R14" t="n">
-        <v>305465</v>
-      </c>
-      <c r="S14" t="n">
-        <v>81797.21131081141</v>
-      </c>
-      <c r="T14" t="n">
-        <v>280004</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1137187</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.8254519728244947</v>
-      </c>
-      <c r="W14" t="n">
         <v>129944.9</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1788,68 +1524,50 @@
         <v>-13.87183781482921</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-7397.883157894736</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-13.87183781482921</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>1900</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>53330.23105263158</v>
       </c>
-      <c r="H15" t="n">
-        <v>38381</v>
-      </c>
-      <c r="I15" t="n">
-        <v>394096.5924932221</v>
-      </c>
       <c r="J15" t="n">
-        <v>21601</v>
+        <v>0.324792639567994</v>
       </c>
       <c r="K15" t="n">
-        <v>17177356</v>
+        <v>10.46567726100155</v>
       </c>
       <c r="L15" t="n">
-        <v>0.324792639567994</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10.46567726100155</v>
+        <v>101327.439</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N15" t="n">
-        <v>101327.439</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>1900</v>
+      </c>
+      <c r="O15" t="n">
+        <v>45932.34789473684</v>
       </c>
       <c r="P15" t="n">
-        <v>1900</v>
+        <v>0.5543765061478053</v>
       </c>
       <c r="Q15" t="n">
-        <v>45932.34789473684</v>
-      </c>
-      <c r="R15" t="n">
-        <v>38400.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>47222.3014161188</v>
-      </c>
-      <c r="T15" t="n">
-        <v>22160</v>
-      </c>
-      <c r="U15" t="n">
-        <v>857014</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.5543765061478053</v>
-      </c>
-      <c r="W15" t="n">
         <v>87271.461</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1868,68 +1586,50 @@
         <v>-0.8692109638594246</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2120.695121951227</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.8692109638594268</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>410</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>243979.3341463415</v>
       </c>
-      <c r="H16" t="n">
-        <v>231404.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>62759.87199831627</v>
-      </c>
       <c r="J16" t="n">
-        <v>221004</v>
+        <v>0.3206387530858947</v>
       </c>
       <c r="K16" t="n">
-        <v>1133200</v>
+        <v>8.079634405998361</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3206387530858947</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8.079634405998361</v>
+        <v>100031.527</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>100031.527</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="O16" t="n">
+        <v>241858.6390243903</v>
       </c>
       <c r="P16" t="n">
-        <v>410</v>
+        <v>0.6299093169351425</v>
       </c>
       <c r="Q16" t="n">
-        <v>241858.6390243903</v>
-      </c>
-      <c r="R16" t="n">
-        <v>232704</v>
-      </c>
-      <c r="S16" t="n">
-        <v>42672.63742463105</v>
-      </c>
-      <c r="T16" t="n">
-        <v>222004</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1018176</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.6299093169351425</v>
-      </c>
-      <c r="W16" t="n">
         <v>99162.042</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1948,68 +1648,50 @@
         <v>-1.783461560235849</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1949.3516483516</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.783461560235801</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>910</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>109301.5791208791</v>
       </c>
-      <c r="H17" t="n">
-        <v>85261</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62296.82390062427</v>
-      </c>
       <c r="J17" t="n">
-        <v>4160</v>
+        <v>0.3188210158590355</v>
       </c>
       <c r="K17" t="n">
-        <v>1017398</v>
+        <v>97.40437944395535</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3188210158590355</v>
-      </c>
-      <c r="M17" t="n">
-        <v>97.40437944395535</v>
+        <v>99464.43700000001</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Reduction</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>99464.43700000001</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+        <v>910</v>
+      </c>
+      <c r="O17" t="n">
+        <v>107352.2274725275</v>
       </c>
       <c r="P17" t="n">
-        <v>910</v>
+        <v>0.6205617784031122</v>
       </c>
       <c r="Q17" t="n">
-        <v>107352.2274725275</v>
-      </c>
-      <c r="R17" t="n">
-        <v>82541</v>
-      </c>
-      <c r="S17" t="n">
-        <v>47158.65730559759</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4040</v>
-      </c>
-      <c r="U17" t="n">
-        <v>229244</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.6205617784031122</v>
-      </c>
-      <c r="W17" t="n">
         <v>97690.527</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Reduction</t>
         </is>
@@ -2028,68 +1710,50 @@
         <v>3.419697811927175</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6028.463414634083</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.41969781192714</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>410</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>176286.4365853659</v>
       </c>
-      <c r="H18" t="n">
-        <v>172843</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9552.107228295694</v>
-      </c>
       <c r="J18" t="n">
-        <v>163162</v>
+        <v>0.2316764385412393</v>
       </c>
       <c r="K18" t="n">
-        <v>230804</v>
+        <v>99.89849634033753</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2316764385412393</v>
-      </c>
-      <c r="M18" t="n">
-        <v>99.89849634033753</v>
+        <v>72277.439</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Normalization</t>
+        </is>
       </c>
       <c r="N18" t="n">
-        <v>72277.439</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="O18" t="n">
+        <v>182314.9</v>
       </c>
       <c r="P18" t="n">
-        <v>410</v>
+        <v>0.4748304819267489</v>
       </c>
       <c r="Q18" t="n">
-        <v>182314.9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>172603</v>
-      </c>
-      <c r="S18" t="n">
-        <v>72048.35432120152</v>
-      </c>
-      <c r="T18" t="n">
-        <v>163722</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1078747</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.4748304819267489</v>
-      </c>
-      <c r="W18" t="n">
         <v>74749.109</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Normalization</t>
         </is>
@@ -2108,68 +1772,50 @@
         <v>0.8969775402165594</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>268.3453834880311</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8969775402165588</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>2047</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>29916.62237420616</v>
       </c>
-      <c r="H19" t="n">
-        <v>4120</v>
-      </c>
-      <c r="I19" t="n">
-        <v>41046.24857920336</v>
-      </c>
       <c r="J19" t="n">
-        <v>3720</v>
+        <v>0.1962951253204464</v>
       </c>
       <c r="K19" t="n">
-        <v>872746</v>
+        <v>5.173588742104105</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1962951253204464</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.173588742104105</v>
+        <v>61239.326</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>61239.326</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
+        <v>2047</v>
+      </c>
+      <c r="O19" t="n">
+        <v>30184.96775769419</v>
       </c>
       <c r="P19" t="n">
-        <v>2047</v>
+        <v>0.3925013271484359</v>
       </c>
       <c r="Q19" t="n">
-        <v>30184.96775769419</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4160</v>
-      </c>
-      <c r="S19" t="n">
-        <v>41109.52724381665</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3760</v>
-      </c>
-      <c r="U19" t="n">
-        <v>875494</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.3925013271484359</v>
-      </c>
-      <c r="W19" t="n">
         <v>61788.629</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Memory</t>
         </is>
@@ -2188,68 +1834,50 @@
         <v>0.1592114918000181</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>252.0849999999919</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1592114918000204</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>200</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>158333.42</v>
       </c>
-      <c r="H20" t="n">
-        <v>157483</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6253.361807305359</v>
-      </c>
       <c r="J20" t="n">
-        <v>146683</v>
+        <v>0.1015036596624688</v>
       </c>
       <c r="K20" t="n">
-        <v>179843</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1015036596624688</v>
-      </c>
-      <c r="M20" t="n">
-        <v>100</v>
+        <v>31666.684</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Elementwise</t>
+        </is>
       </c>
       <c r="N20" t="n">
-        <v>31666.684</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O20" t="n">
+        <v>158585.505</v>
       </c>
       <c r="P20" t="n">
-        <v>200</v>
+        <v>0.2014772691558019</v>
       </c>
       <c r="Q20" t="n">
-        <v>158585.505</v>
-      </c>
-      <c r="R20" t="n">
-        <v>157322.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5879.106623751794</v>
-      </c>
-      <c r="T20" t="n">
-        <v>144122</v>
-      </c>
-      <c r="U20" t="n">
-        <v>175482</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.2014772691558019</v>
-      </c>
-      <c r="W20" t="n">
         <v>31717.101</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Elementwise</t>
         </is>
@@ -2268,68 +1896,50 @@
         <v>3.250743413618918</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>83495</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.250743413618916</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>2568489.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>2567605.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5708.047831303106</v>
-      </c>
       <c r="J21" t="n">
-        <v>2561846</v>
+        <v>0.08232976774715614</v>
       </c>
       <c r="K21" t="n">
-        <v>2581006</v>
+        <v>7.344722389343499</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08232976774715614</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7.344722389343499</v>
+        <v>25684.894</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>25684.894</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2651984.4</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>0.1684626141449017</v>
       </c>
       <c r="Q21" t="n">
-        <v>2651984.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2571860</v>
-      </c>
-      <c r="S21" t="n">
-        <v>258176.5710121661</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2563280</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3386683</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.1684626141449017</v>
-      </c>
-      <c r="W21" t="n">
         <v>26519.844</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2348,68 +1958,50 @@
         <v>2.071913329587094</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>8670.200000000012</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.071913329587091</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>40</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>418463.45</v>
       </c>
-      <c r="H22" t="n">
-        <v>422988</v>
-      </c>
-      <c r="I22" t="n">
-        <v>34724.75986658953</v>
-      </c>
       <c r="J22" t="n">
-        <v>355127</v>
+        <v>0.05365332424447411</v>
       </c>
       <c r="K22" t="n">
-        <v>474328</v>
+        <v>99.66681990179629</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05365332424447411</v>
-      </c>
-      <c r="M22" t="n">
-        <v>99.66681990179629</v>
+        <v>16738.538</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>16738.538</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="O22" t="n">
+        <v>427133.65</v>
       </c>
       <c r="P22" t="n">
-        <v>40</v>
+        <v>0.1085316358094014</v>
       </c>
       <c r="Q22" t="n">
-        <v>427133.65</v>
-      </c>
-      <c r="R22" t="n">
-        <v>433187</v>
-      </c>
-      <c r="S22" t="n">
-        <v>40851.2561464902</v>
-      </c>
-      <c r="T22" t="n">
-        <v>356925</v>
-      </c>
-      <c r="U22" t="n">
-        <v>509848</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.1085316358094014</v>
-      </c>
-      <c r="W22" t="n">
         <v>17085.346</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2428,68 +2020,50 @@
         <v>-3.405690632858807</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-199.0032188841205</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-3.405690632858822</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>1864</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>5843.255901287554</v>
       </c>
-      <c r="H23" t="n">
-        <v>4760</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4661.933009186687</v>
-      </c>
       <c r="J23" t="n">
-        <v>3800</v>
+        <v>0.03491241785587046</v>
       </c>
       <c r="K23" t="n">
-        <v>91441</v>
+        <v>5.208501159959975</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03491241785587046</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5.208501159959975</v>
+        <v>10891.829</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>10891.829</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>1864</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5644.252682403433</v>
       </c>
       <c r="P23" t="n">
-        <v>1864</v>
+        <v>0.0668320721322159</v>
       </c>
       <c r="Q23" t="n">
-        <v>5644.252682403433</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4440</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4700.314169099507</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3680</v>
-      </c>
-      <c r="U23" t="n">
-        <v>90841</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0668320721322159</v>
-      </c>
-      <c r="W23" t="n">
         <v>10520.887</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2508,68 +2082,50 @@
         <v>2008.424811692642</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>23690794.125</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2008.424811692642</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>1179570.875</v>
       </c>
-      <c r="H24" t="n">
-        <v>506289</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1563307.848256422</v>
-      </c>
       <c r="J24" t="n">
-        <v>19960</v>
+        <v>0.03024775455333699</v>
       </c>
       <c r="K24" t="n">
-        <v>3785987</v>
+        <v>10.14088462143355</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03024775455333699</v>
-      </c>
-      <c r="M24" t="n">
-        <v>10.14088462143355</v>
+        <v>9436.566999999999</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Reduction</t>
+        </is>
       </c>
       <c r="N24" t="n">
-        <v>9436.566999999999</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>24870365</v>
       </c>
       <c r="P24" t="n">
-        <v>8</v>
+        <v>1.263876726465772</v>
       </c>
       <c r="Q24" t="n">
-        <v>24870365</v>
-      </c>
-      <c r="R24" t="n">
-        <v>946014.5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>67661655.12301113</v>
-      </c>
-      <c r="T24" t="n">
-        <v>18440</v>
-      </c>
-      <c r="U24" t="n">
-        <v>192306818</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.263876726465772</v>
-      </c>
-      <c r="W24" t="n">
         <v>198962.92</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Reduction</t>
         </is>
@@ -2588,68 +2144,50 @@
         <v>0.2223474264640938</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1258.900000000023</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.222347426464099</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>566186</v>
       </c>
-      <c r="H25" t="n">
-        <v>565310</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5177.942963507173</v>
-      </c>
       <c r="J25" t="n">
-        <v>560210</v>
+        <v>0.01814839566076907</v>
       </c>
       <c r="K25" t="n">
-        <v>578210</v>
+        <v>97.42252783961612</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01814839566076907</v>
-      </c>
-      <c r="M25" t="n">
-        <v>97.42252783961612</v>
+        <v>5661.86</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Reduction</t>
+        </is>
       </c>
       <c r="N25" t="n">
-        <v>5661.86</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>567444.9</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>0.03604593271257265</v>
       </c>
       <c r="Q25" t="n">
-        <v>567444.9</v>
-      </c>
-      <c r="R25" t="n">
-        <v>567568.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3557.805704831755</v>
-      </c>
-      <c r="T25" t="n">
-        <v>561129</v>
-      </c>
-      <c r="U25" t="n">
-        <v>573169</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.03604593271257265</v>
-      </c>
-      <c r="W25" t="n">
         <v>5674.449</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Reduction</t>
         </is>
@@ -2668,68 +2206,50 @@
         <v>-0.7995275984187471</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-276.8272727272852</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.7995275984187823</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>110</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>34623.85454545455</v>
       </c>
-      <c r="H26" t="n">
-        <v>33801</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1997.167603723951</v>
-      </c>
       <c r="J26" t="n">
-        <v>32680</v>
+        <v>0.01220807566331576</v>
       </c>
       <c r="K26" t="n">
-        <v>40280</v>
+        <v>97.08421792021451</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01220807566331576</v>
-      </c>
-      <c r="M26" t="n">
-        <v>97.08421792021451</v>
+        <v>3808.624</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N26" t="n">
-        <v>3808.624</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>110</v>
+      </c>
+      <c r="O26" t="n">
+        <v>34347.02727272727</v>
       </c>
       <c r="P26" t="n">
-        <v>110</v>
+        <v>0.02400017512439688</v>
       </c>
       <c r="Q26" t="n">
-        <v>34347.02727272727</v>
-      </c>
-      <c r="R26" t="n">
-        <v>33521</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1980.306761794499</v>
-      </c>
-      <c r="T26" t="n">
-        <v>32481</v>
-      </c>
-      <c r="U26" t="n">
-        <v>39960</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.02400017512439688</v>
-      </c>
-      <c r="W26" t="n">
         <v>3778.173</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2748,68 +2268,50 @@
         <v>-2.030738268297434</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-326.0090909090904</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-2.030738268297438</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>220</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>16053.72272727273</v>
       </c>
-      <c r="H27" t="n">
-        <v>16640</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3179.961395249979</v>
-      </c>
       <c r="J27" t="n">
-        <v>4360</v>
+        <v>0.01132081129067511</v>
       </c>
       <c r="K27" t="n">
-        <v>20600</v>
+        <v>4.966905211189516</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01132081129067511</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.966905211189516</v>
+        <v>3531.819</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>3531.819</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>220</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15727.71363636364</v>
       </c>
       <c r="P27" t="n">
-        <v>220</v>
+        <v>0.02197965364407619</v>
       </c>
       <c r="Q27" t="n">
-        <v>15727.71363636364</v>
-      </c>
-      <c r="R27" t="n">
-        <v>16280</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3159.157051142884</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4040</v>
-      </c>
-      <c r="U27" t="n">
-        <v>20200</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.02197965364407619</v>
-      </c>
-      <c r="W27" t="n">
         <v>3460.097</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -2828,68 +2330,50 @@
         <v>0.4100056434401106</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.43999999999869</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.4100056434401022</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>200</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>16204.655</v>
       </c>
-      <c r="H28" t="n">
-        <v>16060.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>654.3367396219589</v>
-      </c>
       <c r="J28" t="n">
-        <v>14920</v>
+        <v>0.01038840559414255</v>
       </c>
       <c r="K28" t="n">
-        <v>18600</v>
+        <v>4.977293616783658</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01038840559414255</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.977293616783658</v>
+        <v>3240.931</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N28" t="n">
-        <v>3240.931</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="O28" t="n">
+        <v>16271.095</v>
       </c>
       <c r="P28" t="n">
-        <v>200</v>
+        <v>0.02067185009610192</v>
       </c>
       <c r="Q28" t="n">
-        <v>16271.095</v>
-      </c>
-      <c r="R28" t="n">
-        <v>16201</v>
-      </c>
-      <c r="S28" t="n">
-        <v>714.9393592550774</v>
-      </c>
-      <c r="T28" t="n">
-        <v>15080</v>
-      </c>
-      <c r="U28" t="n">
-        <v>18360</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.02067185009610192</v>
-      </c>
-      <c r="W28" t="n">
         <v>3254.219</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -2908,68 +2392,50 @@
         <v>-24.81053061740141</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-76983.99999999997</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-24.8105306174014</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>310287.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>228744</v>
-      </c>
-      <c r="I29" t="n">
-        <v>252638.6970571039</v>
-      </c>
       <c r="J29" t="n">
-        <v>220284</v>
+        <v>0.009945887276319882</v>
       </c>
       <c r="K29" t="n">
-        <v>1028999</v>
+        <v>2.909817757925261</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009945887276319882</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.909817757925261</v>
+        <v>3102.876</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N29" t="n">
-        <v>3102.876</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>233303.6</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>0.01482019816761234</v>
       </c>
       <c r="Q29" t="n">
-        <v>233303.6</v>
-      </c>
-      <c r="R29" t="n">
-        <v>231003.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>8104.618727066138</v>
-      </c>
-      <c r="T29" t="n">
-        <v>224963</v>
-      </c>
-      <c r="U29" t="n">
-        <v>250604</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.01482019816761234</v>
-      </c>
-      <c r="W29" t="n">
         <v>2333.036</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -2988,68 +2454,50 @@
         <v>0.8413811693836635</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44.30731707317045</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.8413811693836503</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>410</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>5266.021951219513</v>
       </c>
-      <c r="H30" t="n">
-        <v>5160</v>
-      </c>
-      <c r="I30" t="n">
-        <v>649.2142341063964</v>
-      </c>
       <c r="J30" t="n">
-        <v>3961</v>
+        <v>0.006920630052827342</v>
       </c>
       <c r="K30" t="n">
-        <v>9601</v>
+        <v>7.351774696282322</v>
       </c>
       <c r="L30" t="n">
-        <v>0.006920630052827342</v>
-      </c>
-      <c r="M30" t="n">
-        <v>7.351774696282322</v>
+        <v>2159.069</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N30" t="n">
-        <v>2159.069</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5310.329268292683</v>
       </c>
       <c r="P30" t="n">
-        <v>410</v>
+        <v>0.01383049989689891</v>
       </c>
       <c r="Q30" t="n">
-        <v>5310.329268292683</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5200</v>
-      </c>
-      <c r="S30" t="n">
-        <v>732.9657252545964</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3960</v>
-      </c>
-      <c r="U30" t="n">
-        <v>8640</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.01383049989689891</v>
-      </c>
-      <c r="W30" t="n">
         <v>2177.235</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3068,68 +2516,50 @@
         <v>-1.630088934187566</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-614.3214285714275</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.630088934187561</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>56</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>37686.375</v>
       </c>
-      <c r="H31" t="n">
-        <v>43841</v>
-      </c>
-      <c r="I31" t="n">
-        <v>25942.46504342919</v>
-      </c>
       <c r="J31" t="n">
-        <v>4000</v>
+        <v>0.00676474615994152</v>
       </c>
       <c r="K31" t="n">
-        <v>101362</v>
+        <v>97.42943016376107</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00676474615994152</v>
-      </c>
-      <c r="M31" t="n">
-        <v>97.42943016376107</v>
+        <v>2110.437</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Elementwise</t>
+        </is>
       </c>
       <c r="N31" t="n">
-        <v>2110.437</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37072.05357142857</v>
       </c>
       <c r="P31" t="n">
-        <v>56</v>
+        <v>0.01318764481255286</v>
       </c>
       <c r="Q31" t="n">
-        <v>37072.05357142857</v>
-      </c>
-      <c r="R31" t="n">
-        <v>45180.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>26833.69014735675</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4200</v>
-      </c>
-      <c r="U31" t="n">
-        <v>122082</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.01318764481255286</v>
-      </c>
-      <c r="W31" t="n">
         <v>2076.035</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Elementwise</t>
         </is>
@@ -3148,68 +2578,50 @@
         <v>5.010757782721409</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8228</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.010757782721411</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>164206.7</v>
       </c>
-      <c r="H32" t="n">
-        <v>158162.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12466.58194311675</v>
-      </c>
       <c r="J32" t="n">
-        <v>151042</v>
+        <v>0.005263443747724614</v>
       </c>
       <c r="K32" t="n">
-        <v>186284</v>
+        <v>1.915480591483385</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005263443747724614</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.915480591483385</v>
+        <v>1642.067</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N32" t="n">
-        <v>1642.067</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>172434.7</v>
       </c>
       <c r="P32" t="n">
-        <v>10</v>
+        <v>0.01095360905263692</v>
       </c>
       <c r="Q32" t="n">
-        <v>172434.7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>178362.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13926.25288239606</v>
-      </c>
-      <c r="T32" t="n">
-        <v>151442</v>
-      </c>
-      <c r="U32" t="n">
-        <v>192723</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.01095360905263692</v>
-      </c>
-      <c r="W32" t="n">
         <v>1724.347</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -3228,68 +2640,50 @@
         <v>-4.484074422170916</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-6760.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-4.484074422170915</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>10</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>150766.9</v>
       </c>
-      <c r="H33" t="n">
-        <v>155423</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10650.50864147917</v>
-      </c>
       <c r="J33" t="n">
-        <v>134083</v>
+        <v>0.004832647493487306</v>
       </c>
       <c r="K33" t="n">
-        <v>164043</v>
+        <v>1.91021714773566</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004832647493487306</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.91021714773566</v>
+        <v>1507.669</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N33" t="n">
-        <v>1507.669</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>144006.4</v>
       </c>
       <c r="P33" t="n">
-        <v>10</v>
+        <v>0.009147751622368659</v>
       </c>
       <c r="Q33" t="n">
-        <v>144006.4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>138302.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>11945.09127633606</v>
-      </c>
-      <c r="T33" t="n">
-        <v>133402</v>
-      </c>
-      <c r="U33" t="n">
-        <v>166003</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.009147751622368659</v>
-      </c>
-      <c r="W33" t="n">
         <v>1440.064</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -3308,68 +2702,50 @@
         <v>-6.582757883455089</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2844.959999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-6.582757883455086</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>25</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>43218.36</v>
       </c>
-      <c r="H34" t="n">
-        <v>4880</v>
-      </c>
-      <c r="I34" t="n">
-        <v>85926.47449218818</v>
-      </c>
       <c r="J34" t="n">
-        <v>3960</v>
+        <v>0.003463278397423972</v>
       </c>
       <c r="K34" t="n">
-        <v>270885</v>
+        <v>0.003463278397423972</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003463278397423972</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.003463278397423972</v>
+        <v>1080.459</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
       </c>
       <c r="N34" t="n">
-        <v>1080.459</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>40373.4</v>
       </c>
       <c r="P34" t="n">
-        <v>25</v>
+        <v>0.006411621902751177</v>
       </c>
       <c r="Q34" t="n">
-        <v>40373.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4680</v>
-      </c>
-      <c r="S34" t="n">
-        <v>79031.08020530066</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4200</v>
-      </c>
-      <c r="U34" t="n">
-        <v>231963</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.006411621902751177</v>
-      </c>
-      <c r="W34" t="n">
         <v>1009.335</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Memory</t>
         </is>
@@ -3388,68 +2764,50 @@
         <v>-0.6071038574709954</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-564.3000000000029</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.6071038574709954</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>10</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>92949.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>92901.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1306.607247798664</v>
-      </c>
       <c r="J35" t="n">
-        <v>90961</v>
+        <v>0.002979381868274127</v>
       </c>
       <c r="K35" t="n">
-        <v>95482</v>
+        <v>0.7213272123499558</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002979381868274127</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.7213272123499558</v>
+        <v>929.495</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N35" t="n">
-        <v>929.495</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>92385.2</v>
       </c>
       <c r="P35" t="n">
-        <v>10</v>
+        <v>0.005868606278490769</v>
       </c>
       <c r="Q35" t="n">
-        <v>92385.2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>92321.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2099.246044549223</v>
-      </c>
-      <c r="T35" t="n">
-        <v>89322</v>
-      </c>
-      <c r="U35" t="n">
-        <v>96761</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.005868606278490769</v>
-      </c>
-      <c r="W35" t="n">
         <v>923.852</v>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -3468,68 +2826,50 @@
         <v>1.613251877653979</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.613251877653995</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>10</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>68929.10000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>68221</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3306.632810646572</v>
-      </c>
       <c r="J36" t="n">
-        <v>65042</v>
+        <v>0.002209437498173246</v>
       </c>
       <c r="K36" t="n">
-        <v>74561</v>
+        <v>1.917690028981558</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002209437498173246</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.917690028981558</v>
+        <v>689.2910000000001</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
       </c>
       <c r="N36" t="n">
-        <v>689.2910000000001</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>70041.10000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>0.004449236882232217</v>
       </c>
       <c r="Q36" t="n">
-        <v>70041.10000000001</v>
-      </c>
-      <c r="R36" t="n">
-        <v>68741</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3693.695543309797</v>
-      </c>
-      <c r="T36" t="n">
-        <v>65801</v>
-      </c>
-      <c r="U36" t="n">
-        <v>77721</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.004449236882232217</v>
-      </c>
-      <c r="W36" t="n">
         <v>700.4109999999999</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
@@ -3548,68 +2888,50 @@
         <v>-1.588055845259186</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-772</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.58805584525918</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>10</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>48612.9</v>
       </c>
-      <c r="H37" t="n">
-        <v>48780.5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>515.3666332492515</v>
-      </c>
       <c r="J37" t="n">
-        <v>47681</v>
+        <v>0.001558226701856635</v>
       </c>
       <c r="K37" t="n">
-        <v>49201</v>
+        <v>97.0720098445512</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001558226701856635</v>
-      </c>
-      <c r="M37" t="n">
-        <v>97.0720098445512</v>
+        <v>486.129</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N37" t="n">
-        <v>486.129</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>47840.9</v>
       </c>
       <c r="P37" t="n">
-        <v>10</v>
+        <v>0.003039008478724396</v>
       </c>
       <c r="Q37" t="n">
-        <v>47840.9</v>
-      </c>
-      <c r="R37" t="n">
-        <v>48061</v>
-      </c>
-      <c r="S37" t="n">
-        <v>953.6643306507568</v>
-      </c>
-      <c r="T37" t="n">
-        <v>46400</v>
-      </c>
-      <c r="U37" t="n">
-        <v>48881</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.003039008478724396</v>
-      </c>
-      <c r="W37" t="n">
         <v>478.409</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3628,68 +2950,50 @@
         <v>0.2551033980091835</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>95.90000000000146</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.2551033980091866</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>37592.6</v>
       </c>
-      <c r="H38" t="n">
-        <v>37760.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>705.2200917286591</v>
-      </c>
       <c r="J38" t="n">
-        <v>36361</v>
+        <v>0.001204984543448668</v>
       </c>
       <c r="K38" t="n">
-        <v>38721</v>
+        <v>97.08555842809632</v>
       </c>
       <c r="L38" t="n">
-        <v>0.001204984543448668</v>
-      </c>
-      <c r="M38" t="n">
-        <v>97.08555842809632</v>
+        <v>375.926</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N38" t="n">
-        <v>375.926</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>37688.5</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>0.002394095241736765</v>
       </c>
       <c r="Q38" t="n">
-        <v>37688.5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>37720.5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>770.7833317116066</v>
-      </c>
-      <c r="T38" t="n">
-        <v>36640</v>
-      </c>
-      <c r="U38" t="n">
-        <v>39321</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.002394095241736765</v>
-      </c>
-      <c r="W38" t="n">
         <v>376.885</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3708,68 +3012,50 @@
         <v>-0.1314049721682648</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.1314049721682666</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>10</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>12252.2</v>
       </c>
-      <c r="H39" t="n">
-        <v>12120</v>
-      </c>
-      <c r="I39" t="n">
-        <v>529.9259487052044</v>
-      </c>
       <c r="J39" t="n">
-        <v>11680</v>
+        <v>0.0003927291973218603</v>
       </c>
       <c r="K39" t="n">
-        <v>13080</v>
+        <v>9.614228857109801</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0003927291973218603</v>
-      </c>
-      <c r="M39" t="n">
-        <v>9.614228857109801</v>
+        <v>122.522</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Elementwise</t>
+        </is>
       </c>
       <c r="N39" t="n">
-        <v>122.522</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12236.1</v>
       </c>
       <c r="P39" t="n">
-        <v>10</v>
+        <v>0.0007772765906686449</v>
       </c>
       <c r="Q39" t="n">
-        <v>12236.1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>12260</v>
-      </c>
-      <c r="S39" t="n">
-        <v>498.9509995981567</v>
-      </c>
-      <c r="T39" t="n">
-        <v>11520</v>
-      </c>
-      <c r="U39" t="n">
-        <v>13360</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0007772765906686449</v>
-      </c>
-      <c r="W39" t="n">
         <v>122.361</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Elementwise</t>
         </is>
@@ -3788,68 +3074,50 @@
         <v>-1.307939938317453</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-58.10000000000036</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.307939938317471</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>4442.1</v>
       </c>
-      <c r="H40" t="n">
-        <v>4720</v>
-      </c>
-      <c r="I40" t="n">
-        <v>422.4137283454893</v>
-      </c>
       <c r="J40" t="n">
-        <v>3800</v>
+        <v>0.0002847721009163147</v>
       </c>
       <c r="K40" t="n">
-        <v>5040</v>
+        <v>10.10985051098002</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0002847721009163147</v>
-      </c>
-      <c r="M40" t="n">
-        <v>10.10985051098002</v>
+        <v>88.842</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N40" t="n">
-        <v>88.842</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4384</v>
       </c>
       <c r="P40" t="n">
-        <v>20</v>
+        <v>0.0005569716778207664</v>
       </c>
       <c r="Q40" t="n">
-        <v>4384</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4360</v>
-      </c>
-      <c r="S40" t="n">
-        <v>428.5397482025136</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3720</v>
-      </c>
-      <c r="U40" t="n">
-        <v>4960</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.0005569716778207664</v>
-      </c>
-      <c r="W40" t="n">
         <v>87.68000000000001</v>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3868,68 +3136,50 @@
         <v>-3.239461168795602</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-260.1999999999998</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-3.239461168795595</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>10</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>8032.2</v>
       </c>
-      <c r="H41" t="n">
-        <v>8000.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>536.9909579209775</v>
-      </c>
       <c r="J41" t="n">
-        <v>7040</v>
+        <v>0.0002574622891177622</v>
       </c>
       <c r="K41" t="n">
-        <v>8680</v>
+        <v>10.11045197753111</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0002574622891177622</v>
-      </c>
-      <c r="M41" t="n">
-        <v>10.11045197753111</v>
+        <v>80.322</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N41" t="n">
-        <v>80.322</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7772</v>
       </c>
       <c r="P41" t="n">
-        <v>10</v>
+        <v>0.0004937025410610169</v>
       </c>
       <c r="Q41" t="n">
-        <v>7772</v>
-      </c>
-      <c r="R41" t="n">
-        <v>7700</v>
-      </c>
-      <c r="S41" t="n">
-        <v>348.2272565756768</v>
-      </c>
-      <c r="T41" t="n">
-        <v>7360</v>
-      </c>
-      <c r="U41" t="n">
-        <v>8320</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.0004937025410610169</v>
-      </c>
-      <c r="W41" t="n">
         <v>77.72</v>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3948,68 +3198,50 @@
         <v>-0.9708569546297658</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-0.9708569546297739</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>10</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>5768.1</v>
       </c>
-      <c r="H42" t="n">
-        <v>5720</v>
-      </c>
-      <c r="I42" t="n">
-        <v>569.0367006324519</v>
-      </c>
       <c r="J42" t="n">
-        <v>4760</v>
+        <v>0.0001848893491023834</v>
       </c>
       <c r="K42" t="n">
-        <v>6880</v>
+        <v>10.11063686688022</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0001848893491023834</v>
-      </c>
-      <c r="M42" t="n">
-        <v>10.11063686688022</v>
+        <v>57.681</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Normalization</t>
+        </is>
       </c>
       <c r="N42" t="n">
-        <v>57.681</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5712.1</v>
       </c>
       <c r="P42" t="n">
-        <v>10</v>
+        <v>0.0003628510402463503</v>
       </c>
       <c r="Q42" t="n">
-        <v>5712.1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5800</v>
-      </c>
-      <c r="S42" t="n">
-        <v>568.2347812890958</v>
-      </c>
-      <c r="T42" t="n">
-        <v>4680</v>
-      </c>
-      <c r="U42" t="n">
-        <v>6480</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.0003628510402463503</v>
-      </c>
-      <c r="W42" t="n">
         <v>57.121</v>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Normalization</t>
         </is>
@@ -4028,68 +3260,50 @@
         <v>0.005266853932584469</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.3000000000001819</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.005266853932587463</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>10</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>5696</v>
       </c>
-      <c r="H43" t="n">
-        <v>5500</v>
-      </c>
-      <c r="I43" t="n">
-        <v>577.8734963448123</v>
-      </c>
       <c r="J43" t="n">
-        <v>5080</v>
+        <v>0.0001825782723058158</v>
       </c>
       <c r="K43" t="n">
-        <v>7120</v>
+        <v>10.11003308925232</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0001825782723058158</v>
-      </c>
-      <c r="M43" t="n">
-        <v>10.11003308925232</v>
+        <v>56.96</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N43" t="n">
-        <v>56.96</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5696.3</v>
       </c>
       <c r="P43" t="n">
-        <v>10</v>
+        <v>0.0003618473732174306</v>
       </c>
       <c r="Q43" t="n">
-        <v>5696.3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5620.5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>397.6578791988019</v>
-      </c>
-      <c r="T43" t="n">
-        <v>5241</v>
-      </c>
-      <c r="U43" t="n">
-        <v>6600</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.0003618473732174306</v>
-      </c>
-      <c r="W43" t="n">
         <v>56.963</v>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -4108,68 +3322,50 @@
         <v>-4.606739341951114</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-232</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-4.606739341951113</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>10</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>5036.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>4960</v>
-      </c>
-      <c r="I44" t="n">
-        <v>281.1897145266084</v>
-      </c>
       <c r="J44" t="n">
-        <v>4800</v>
+        <v>0.0001614259896698242</v>
       </c>
       <c r="K44" t="n">
-        <v>5800</v>
+        <v>10.11019451524199</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0001614259896698242</v>
-      </c>
-      <c r="M44" t="n">
-        <v>10.11019451524199</v>
+        <v>50.361</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N44" t="n">
-        <v>50.361</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4804.1</v>
       </c>
       <c r="P44" t="n">
-        <v>10</v>
+        <v>0.0003051719476983056</v>
       </c>
       <c r="Q44" t="n">
-        <v>4804.1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4840</v>
-      </c>
-      <c r="S44" t="n">
-        <v>305.5619413474133</v>
-      </c>
-      <c r="T44" t="n">
-        <v>4320</v>
-      </c>
-      <c r="U44" t="n">
-        <v>5320</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.0003051719476983056</v>
-      </c>
-      <c r="W44" t="n">
         <v>48.041</v>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -4188,68 +3384,50 @@
         <v>1.211528156380334</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.211528156380326</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>10</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>4292.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>4080</v>
-      </c>
-      <c r="I45" t="n">
-        <v>402.5884167898193</v>
-      </c>
       <c r="J45" t="n">
-        <v>3920</v>
+        <v>0.0001375779850006657</v>
       </c>
       <c r="K45" t="n">
-        <v>5000</v>
+        <v>97.42266541760112</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0001375779850006657</v>
-      </c>
-      <c r="M45" t="n">
-        <v>97.42266541760112</v>
+        <v>42.921</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N45" t="n">
-        <v>42.921</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4344.1</v>
       </c>
       <c r="P45" t="n">
-        <v>10</v>
+        <v>0.0002759512620462125</v>
       </c>
       <c r="Q45" t="n">
-        <v>4344.1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4500</v>
-      </c>
-      <c r="S45" t="n">
-        <v>441.9996103567915</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3720</v>
-      </c>
-      <c r="U45" t="n">
-        <v>4840</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.0002759512620462125</v>
-      </c>
-      <c r="W45" t="n">
         <v>43.441</v>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -4268,68 +3446,50 @@
         <v>2.743614001892139</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.743614001892148</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>10</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>4228</v>
       </c>
-      <c r="H46" t="n">
-        <v>4140</v>
-      </c>
-      <c r="I46" t="n">
-        <v>407.0708374063004</v>
-      </c>
       <c r="J46" t="n">
-        <v>3840</v>
+        <v>0.000135523338361831</v>
       </c>
       <c r="K46" t="n">
-        <v>4920</v>
+        <v>97.08435344355287</v>
       </c>
       <c r="L46" t="n">
-        <v>0.000135523338361831</v>
-      </c>
-      <c r="M46" t="n">
-        <v>97.08435344355287</v>
+        <v>42.28</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N46" t="n">
-        <v>42.28</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4344</v>
       </c>
       <c r="P46" t="n">
-        <v>10</v>
+        <v>0.0002759449097232446</v>
       </c>
       <c r="Q46" t="n">
-        <v>4344</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4300</v>
-      </c>
-      <c r="S46" t="n">
-        <v>404.5079315250402</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3840</v>
-      </c>
-      <c r="U46" t="n">
-        <v>4800</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0.0002759449097232446</v>
-      </c>
-      <c r="W46" t="n">
         <v>43.44</v>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -4348,68 +3508,50 @@
         <v>3.505355404089593</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3.505355404089582</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>10</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>4108</v>
       </c>
-      <c r="H47" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I47" t="n">
-        <v>269.3531345856422</v>
-      </c>
       <c r="J47" t="n">
-        <v>3840</v>
+        <v>0.0001316768859958377</v>
       </c>
       <c r="K47" t="n">
-        <v>4680</v>
+        <v>7.344854066229495</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0001316768859958377</v>
-      </c>
-      <c r="M47" t="n">
-        <v>7.344854066229495</v>
+        <v>41.08</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="N47" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4252</v>
       </c>
       <c r="P47" t="n">
-        <v>10</v>
+        <v>0.000270100772592826</v>
       </c>
       <c r="Q47" t="n">
-        <v>4252</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4060</v>
-      </c>
-      <c r="S47" t="n">
-        <v>384.6152478632235</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3760</v>
-      </c>
-      <c r="U47" t="n">
-        <v>4800</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.000270100772592826</v>
-      </c>
-      <c r="W47" t="n">
         <v>42.52</v>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/tests/traces/compare_test/reference/compare_56ch_rank7_across_threads.xlsx
+++ b/tests/traces/compare_test/reference/compare_56ch_rank7_across_threads.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,32 +676,22 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>256thread::Category</t>
+          <t>512thread::Count</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>512thread::Count</t>
+          <t>512thread::Mean Kernel Time (µs)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>512thread::Mean Kernel Time (µs)</t>
+          <t>512thread::Percentage (%)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>512thread::Percentage (%)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
           <t>512thread::Total Kernel Time (ms)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>512thread::Category</t>
         </is>
       </c>
     </row>
@@ -744,27 +734,17 @@
       <c r="L2" t="n">
         <v>27018592.547</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>COMM</t>
-        </is>
+      <c r="M2" t="n">
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>270</v>
+        <v>42028966.12962963</v>
       </c>
       <c r="O2" t="n">
-        <v>42028966.12962963</v>
+        <v>72.0850230522221</v>
       </c>
       <c r="P2" t="n">
-        <v>72.0850230522221</v>
-      </c>
-      <c r="Q2" t="n">
         <v>11347820.855</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>COMM</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -806,27 +786,17 @@
       <c r="L3" t="n">
         <v>681272.884</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+      <c r="M3" t="n">
+        <v>10247</v>
       </c>
       <c r="N3" t="n">
-        <v>10247</v>
+        <v>67153.60466477994</v>
       </c>
       <c r="O3" t="n">
-        <v>67153.60466477994</v>
+        <v>4.371179455023123</v>
       </c>
       <c r="P3" t="n">
-        <v>4.371179455023123</v>
-      </c>
-      <c r="Q3" t="n">
         <v>688122.987</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -868,27 +838,17 @@
       <c r="L4" t="n">
         <v>478633.788</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+      <c r="M4" t="n">
+        <v>2060</v>
       </c>
       <c r="N4" t="n">
-        <v>2060</v>
+        <v>233816.7684466019</v>
       </c>
       <c r="O4" t="n">
-        <v>233816.7684466019</v>
+        <v>3.059676034650171</v>
       </c>
       <c r="P4" t="n">
-        <v>3.059676034650171</v>
-      </c>
-      <c r="Q4" t="n">
         <v>481662.543</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -930,27 +890,17 @@
       <c r="L5" t="n">
         <v>431185.19</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M5" t="n">
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>200</v>
+        <v>2212016.62</v>
       </c>
       <c r="O5" t="n">
-        <v>2212016.62</v>
+        <v>2.810288796096762</v>
       </c>
       <c r="P5" t="n">
-        <v>2.810288796096762</v>
-      </c>
-      <c r="Q5" t="n">
         <v>442403.324</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -992,27 +942,17 @@
       <c r="L6" t="n">
         <v>369397.203</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M6" t="n">
+        <v>620</v>
       </c>
       <c r="N6" t="n">
-        <v>620</v>
+        <v>611653.5016129032</v>
       </c>
       <c r="O6" t="n">
-        <v>611653.5016129032</v>
+        <v>2.408960763728753</v>
       </c>
       <c r="P6" t="n">
-        <v>2.408960763728753</v>
-      </c>
-      <c r="Q6" t="n">
         <v>379225.171</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -1054,27 +994,17 @@
       <c r="L7" t="n">
         <v>306416.952</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M7" t="n">
+        <v>610</v>
       </c>
       <c r="N7" t="n">
-        <v>610</v>
+        <v>494612.062295082</v>
       </c>
       <c r="O7" t="n">
-        <v>494612.062295082</v>
+        <v>1.916580693729443</v>
       </c>
       <c r="P7" t="n">
-        <v>1.916580693729443</v>
-      </c>
-      <c r="Q7" t="n">
         <v>301713.358</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -1116,27 +1046,17 @@
       <c r="L8" t="n">
         <v>269720.129</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M8" t="n">
+        <v>410</v>
       </c>
       <c r="N8" t="n">
-        <v>410</v>
+        <v>674966.3634146341</v>
       </c>
       <c r="O8" t="n">
-        <v>674966.3634146341</v>
+        <v>1.757917776465423</v>
       </c>
       <c r="P8" t="n">
-        <v>1.757917776465423</v>
-      </c>
-      <c r="Q8" t="n">
         <v>276736.209</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -1178,27 +1098,17 @@
       <c r="L9" t="n">
         <v>223026.67</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M9" t="n">
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>200</v>
+        <v>1136174.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1136174.96</v>
+        <v>1.443470058779977</v>
       </c>
       <c r="P9" t="n">
-        <v>1.443470058779977</v>
-      </c>
-      <c r="Q9" t="n">
         <v>227234.992</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -1240,27 +1150,17 @@
       <c r="L10" t="n">
         <v>209579.213</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Attention</t>
-        </is>
+      <c r="M10" t="n">
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>200</v>
+        <v>1063244.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1063244.1</v>
+        <v>1.35081398337142</v>
       </c>
       <c r="P10" t="n">
-        <v>1.35081398337142</v>
-      </c>
-      <c r="Q10" t="n">
         <v>212648.82</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Attention</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -1302,27 +1202,17 @@
       <c r="L11" t="n">
         <v>202623.633</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M11" t="n">
+        <v>420</v>
       </c>
       <c r="N11" t="n">
-        <v>420</v>
+        <v>480581.6952380952</v>
       </c>
       <c r="O11" t="n">
-        <v>480581.6952380952</v>
+        <v>1.282180259046741</v>
       </c>
       <c r="P11" t="n">
-        <v>1.282180259046741</v>
-      </c>
-      <c r="Q11" t="n">
         <v>201844.312</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -1364,27 +1254,17 @@
       <c r="L12" t="n">
         <v>165885.894</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M12" t="n">
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>200</v>
+        <v>820126.465</v>
       </c>
       <c r="O12" t="n">
-        <v>820126.465</v>
+        <v>1.041941636031624</v>
       </c>
       <c r="P12" t="n">
-        <v>1.041941636031624</v>
-      </c>
-      <c r="Q12" t="n">
         <v>164025.293</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -1426,27 +1306,17 @@
       <c r="L13" t="n">
         <v>154533.113</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M13" t="n">
+        <v>610</v>
       </c>
       <c r="N13" t="n">
-        <v>610</v>
+        <v>251534.7</v>
       </c>
       <c r="O13" t="n">
-        <v>251534.7</v>
+        <v>0.9746760877324054</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9746760877324054</v>
-      </c>
-      <c r="Q13" t="n">
         <v>153436.167</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -1488,27 +1358,17 @@
       <c r="L14" t="n">
         <v>127043.078</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M14" t="n">
+        <v>410</v>
       </c>
       <c r="N14" t="n">
-        <v>410</v>
+        <v>316938.7804878049</v>
       </c>
       <c r="O14" t="n">
-        <v>316938.7804878049</v>
+        <v>0.8254519728244947</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8254519728244947</v>
-      </c>
-      <c r="Q14" t="n">
         <v>129944.9</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -1550,27 +1410,17 @@
       <c r="L15" t="n">
         <v>101327.439</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M15" t="n">
+        <v>1900</v>
       </c>
       <c r="N15" t="n">
-        <v>1900</v>
+        <v>45932.34789473684</v>
       </c>
       <c r="O15" t="n">
-        <v>45932.34789473684</v>
+        <v>0.5543765061478053</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5543765061478053</v>
-      </c>
-      <c r="Q15" t="n">
         <v>87271.461</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -1612,27 +1462,17 @@
       <c r="L16" t="n">
         <v>100031.527</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M16" t="n">
+        <v>410</v>
       </c>
       <c r="N16" t="n">
-        <v>410</v>
+        <v>241858.6390243903</v>
       </c>
       <c r="O16" t="n">
-        <v>241858.6390243903</v>
+        <v>0.6299093169351425</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6299093169351425</v>
-      </c>
-      <c r="Q16" t="n">
         <v>99162.042</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -1674,27 +1514,17 @@
       <c r="L17" t="n">
         <v>99464.43700000001</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+      <c r="M17" t="n">
+        <v>910</v>
       </c>
       <c r="N17" t="n">
-        <v>910</v>
+        <v>107352.2274725275</v>
       </c>
       <c r="O17" t="n">
-        <v>107352.2274725275</v>
+        <v>0.6205617784031122</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6205617784031122</v>
-      </c>
-      <c r="Q17" t="n">
         <v>97690.527</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -1736,27 +1566,17 @@
       <c r="L18" t="n">
         <v>72277.439</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
+      <c r="M18" t="n">
+        <v>410</v>
       </c>
       <c r="N18" t="n">
-        <v>410</v>
+        <v>182314.9</v>
       </c>
       <c r="O18" t="n">
-        <v>182314.9</v>
+        <v>0.4748304819267489</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4748304819267489</v>
-      </c>
-      <c r="Q18" t="n">
         <v>74749.109</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -1798,27 +1618,17 @@
       <c r="L19" t="n">
         <v>61239.326</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
+      <c r="M19" t="n">
+        <v>2047</v>
       </c>
       <c r="N19" t="n">
-        <v>2047</v>
+        <v>30184.96775769419</v>
       </c>
       <c r="O19" t="n">
-        <v>30184.96775769419</v>
+        <v>0.3925013271484359</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3925013271484359</v>
-      </c>
-      <c r="Q19" t="n">
         <v>61788.629</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -1860,27 +1670,17 @@
       <c r="L20" t="n">
         <v>31666.684</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+      <c r="M20" t="n">
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>200</v>
+        <v>158585.505</v>
       </c>
       <c r="O20" t="n">
-        <v>158585.505</v>
+        <v>0.2014772691558019</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2014772691558019</v>
-      </c>
-      <c r="Q20" t="n">
         <v>31717.101</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -1922,27 +1722,17 @@
       <c r="L21" t="n">
         <v>25684.894</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M21" t="n">
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>2651984.4</v>
       </c>
       <c r="O21" t="n">
-        <v>2651984.4</v>
+        <v>0.1684626141449017</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1684626141449017</v>
-      </c>
-      <c r="Q21" t="n">
         <v>26519.844</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="22">
@@ -1984,27 +1774,17 @@
       <c r="L22" t="n">
         <v>16738.538</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M22" t="n">
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>40</v>
+        <v>427133.65</v>
       </c>
       <c r="O22" t="n">
-        <v>427133.65</v>
+        <v>0.1085316358094014</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1085316358094014</v>
-      </c>
-      <c r="Q22" t="n">
         <v>17085.346</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -2046,27 +1826,17 @@
       <c r="L23" t="n">
         <v>10891.829</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M23" t="n">
+        <v>1864</v>
       </c>
       <c r="N23" t="n">
-        <v>1864</v>
+        <v>5644.252682403433</v>
       </c>
       <c r="O23" t="n">
-        <v>5644.252682403433</v>
+        <v>0.0668320721322159</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0668320721322159</v>
-      </c>
-      <c r="Q23" t="n">
         <v>10520.887</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="24">
@@ -2108,27 +1878,17 @@
       <c r="L24" t="n">
         <v>9436.566999999999</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+      <c r="M24" t="n">
+        <v>8</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>24870365</v>
       </c>
       <c r="O24" t="n">
-        <v>24870365</v>
+        <v>1.263876726465772</v>
       </c>
       <c r="P24" t="n">
-        <v>1.263876726465772</v>
-      </c>
-      <c r="Q24" t="n">
         <v>198962.92</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
       </c>
     </row>
     <row r="25">
@@ -2170,27 +1930,17 @@
       <c r="L25" t="n">
         <v>5661.86</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
+      <c r="M25" t="n">
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>567444.9</v>
       </c>
       <c r="O25" t="n">
-        <v>567444.9</v>
+        <v>0.03604593271257265</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03604593271257265</v>
-      </c>
-      <c r="Q25" t="n">
         <v>5674.449</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Reduction</t>
-        </is>
       </c>
     </row>
     <row r="26">
@@ -2232,27 +1982,17 @@
       <c r="L26" t="n">
         <v>3808.624</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M26" t="n">
+        <v>110</v>
       </c>
       <c r="N26" t="n">
-        <v>110</v>
+        <v>34347.02727272727</v>
       </c>
       <c r="O26" t="n">
-        <v>34347.02727272727</v>
+        <v>0.02400017512439688</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02400017512439688</v>
-      </c>
-      <c r="Q26" t="n">
         <v>3778.173</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="27">
@@ -2294,27 +2034,17 @@
       <c r="L27" t="n">
         <v>3531.819</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M27" t="n">
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>220</v>
+        <v>15727.71363636364</v>
       </c>
       <c r="O27" t="n">
-        <v>15727.71363636364</v>
+        <v>0.02197965364407619</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02197965364407619</v>
-      </c>
-      <c r="Q27" t="n">
         <v>3460.097</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -2356,27 +2086,17 @@
       <c r="L28" t="n">
         <v>3240.931</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M28" t="n">
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>200</v>
+        <v>16271.095</v>
       </c>
       <c r="O28" t="n">
-        <v>16271.095</v>
+        <v>0.02067185009610192</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02067185009610192</v>
-      </c>
-      <c r="Q28" t="n">
         <v>3254.219</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -2418,27 +2138,17 @@
       <c r="L29" t="n">
         <v>3102.876</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M29" t="n">
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>233303.6</v>
       </c>
       <c r="O29" t="n">
-        <v>233303.6</v>
+        <v>0.01482019816761234</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01482019816761234</v>
-      </c>
-      <c r="Q29" t="n">
         <v>2333.036</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="30">
@@ -2480,27 +2190,17 @@
       <c r="L30" t="n">
         <v>2159.069</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M30" t="n">
+        <v>410</v>
       </c>
       <c r="N30" t="n">
-        <v>410</v>
+        <v>5310.329268292683</v>
       </c>
       <c r="O30" t="n">
-        <v>5310.329268292683</v>
+        <v>0.01383049989689891</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01383049989689891</v>
-      </c>
-      <c r="Q30" t="n">
         <v>2177.235</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="31">
@@ -2542,27 +2242,17 @@
       <c r="L31" t="n">
         <v>2110.437</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+      <c r="M31" t="n">
+        <v>56</v>
       </c>
       <c r="N31" t="n">
-        <v>56</v>
+        <v>37072.05357142857</v>
       </c>
       <c r="O31" t="n">
-        <v>37072.05357142857</v>
+        <v>0.01318764481255286</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01318764481255286</v>
-      </c>
-      <c r="Q31" t="n">
         <v>2076.035</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
       </c>
     </row>
     <row r="32">
@@ -2604,27 +2294,17 @@
       <c r="L32" t="n">
         <v>1642.067</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M32" t="n">
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>172434.7</v>
       </c>
       <c r="O32" t="n">
-        <v>172434.7</v>
+        <v>0.01095360905263692</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01095360905263692</v>
-      </c>
-      <c r="Q32" t="n">
         <v>1724.347</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -2666,27 +2346,17 @@
       <c r="L33" t="n">
         <v>1507.669</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M33" t="n">
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>144006.4</v>
       </c>
       <c r="O33" t="n">
-        <v>144006.4</v>
+        <v>0.009147751622368659</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009147751622368659</v>
-      </c>
-      <c r="Q33" t="n">
         <v>1440.064</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="34">
@@ -2728,27 +2398,17 @@
       <c r="L34" t="n">
         <v>1080.459</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
+      <c r="M34" t="n">
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>25</v>
+        <v>40373.4</v>
       </c>
       <c r="O34" t="n">
-        <v>40373.4</v>
+        <v>0.006411621902751177</v>
       </c>
       <c r="P34" t="n">
-        <v>0.006411621902751177</v>
-      </c>
-      <c r="Q34" t="n">
         <v>1009.335</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Memory</t>
-        </is>
       </c>
     </row>
     <row r="35">
@@ -2790,27 +2450,17 @@
       <c r="L35" t="n">
         <v>929.495</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M35" t="n">
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>92385.2</v>
       </c>
       <c r="O35" t="n">
-        <v>92385.2</v>
+        <v>0.005868606278490769</v>
       </c>
       <c r="P35" t="n">
-        <v>0.005868606278490769</v>
-      </c>
-      <c r="Q35" t="n">
         <v>923.852</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="36">
@@ -2852,27 +2502,17 @@
       <c r="L36" t="n">
         <v>689.2910000000001</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
+      <c r="M36" t="n">
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>70041.10000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>70041.10000000001</v>
+        <v>0.004449236882232217</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004449236882232217</v>
-      </c>
-      <c r="Q36" t="n">
         <v>700.4109999999999</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
       </c>
     </row>
     <row r="37">
@@ -2914,27 +2554,17 @@
       <c r="L37" t="n">
         <v>486.129</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M37" t="n">
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>47840.9</v>
       </c>
       <c r="O37" t="n">
-        <v>47840.9</v>
+        <v>0.003039008478724396</v>
       </c>
       <c r="P37" t="n">
-        <v>0.003039008478724396</v>
-      </c>
-      <c r="Q37" t="n">
         <v>478.409</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="38">
@@ -2976,27 +2606,17 @@
       <c r="L38" t="n">
         <v>375.926</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M38" t="n">
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>37688.5</v>
       </c>
       <c r="O38" t="n">
-        <v>37688.5</v>
+        <v>0.002394095241736765</v>
       </c>
       <c r="P38" t="n">
-        <v>0.002394095241736765</v>
-      </c>
-      <c r="Q38" t="n">
         <v>376.885</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="39">
@@ -3038,27 +2658,17 @@
       <c r="L39" t="n">
         <v>122.522</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
+      <c r="M39" t="n">
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>12236.1</v>
       </c>
       <c r="O39" t="n">
-        <v>12236.1</v>
+        <v>0.0007772765906686449</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0007772765906686449</v>
-      </c>
-      <c r="Q39" t="n">
         <v>122.361</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Elementwise</t>
-        </is>
       </c>
     </row>
     <row r="40">
@@ -3100,27 +2710,17 @@
       <c r="L40" t="n">
         <v>88.842</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M40" t="n">
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>20</v>
+        <v>4384</v>
       </c>
       <c r="O40" t="n">
-        <v>4384</v>
+        <v>0.0005569716778207664</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0005569716778207664</v>
-      </c>
-      <c r="Q40" t="n">
         <v>87.68000000000001</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="41">
@@ -3162,27 +2762,17 @@
       <c r="L41" t="n">
         <v>80.322</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M41" t="n">
+        <v>10</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>7772</v>
       </c>
       <c r="O41" t="n">
-        <v>7772</v>
+        <v>0.0004937025410610169</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0004937025410610169</v>
-      </c>
-      <c r="Q41" t="n">
         <v>77.72</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="42">
@@ -3224,27 +2814,17 @@
       <c r="L42" t="n">
         <v>57.681</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
+      <c r="M42" t="n">
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>5712.1</v>
       </c>
       <c r="O42" t="n">
-        <v>5712.1</v>
+        <v>0.0003628510402463503</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0003628510402463503</v>
-      </c>
-      <c r="Q42" t="n">
         <v>57.121</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
       </c>
     </row>
     <row r="43">
@@ -3286,27 +2866,17 @@
       <c r="L43" t="n">
         <v>56.96</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M43" t="n">
+        <v>10</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>5696.3</v>
       </c>
       <c r="O43" t="n">
-        <v>5696.3</v>
+        <v>0.0003618473732174306</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0003618473732174306</v>
-      </c>
-      <c r="Q43" t="n">
         <v>56.963</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="44">
@@ -3348,27 +2918,17 @@
       <c r="L44" t="n">
         <v>50.361</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M44" t="n">
+        <v>10</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>4804.1</v>
       </c>
       <c r="O44" t="n">
-        <v>4804.1</v>
+        <v>0.0003051719476983056</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0003051719476983056</v>
-      </c>
-      <c r="Q44" t="n">
         <v>48.041</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="45">
@@ -3410,27 +2970,17 @@
       <c r="L45" t="n">
         <v>42.921</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M45" t="n">
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>4344.1</v>
       </c>
       <c r="O45" t="n">
-        <v>4344.1</v>
+        <v>0.0002759512620462125</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0002759512620462125</v>
-      </c>
-      <c r="Q45" t="n">
         <v>43.441</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="46">
@@ -3472,27 +3022,17 @@
       <c r="L46" t="n">
         <v>42.28</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M46" t="n">
+        <v>10</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>4344</v>
       </c>
       <c r="O46" t="n">
-        <v>4344</v>
+        <v>0.0002759449097232446</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0002759449097232446</v>
-      </c>
-      <c r="Q46" t="n">
         <v>43.44</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
     <row r="47">
@@ -3534,27 +3074,17 @@
       <c r="L47" t="n">
         <v>41.08</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="M47" t="n">
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>4252</v>
       </c>
       <c r="O47" t="n">
-        <v>4252</v>
+        <v>0.000270100772592826</v>
       </c>
       <c r="P47" t="n">
-        <v>0.000270100772592826</v>
-      </c>
-      <c r="Q47" t="n">
         <v>42.52</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
       </c>
     </row>
   </sheetData>
